--- a/design.xlsx
+++ b/design.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason/Documents/Arduino/14_C++/uCSerial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{888513CD-844A-8142-8127-75E881C66C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C7668D-58CA-0741-9DE3-5F2AA6A2BE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="24700" xr2:uid="{F7358D59-63E9-3B49-A573-79C14EFF7FE1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>MsgParser</t>
   </si>
@@ -63,13 +63,37 @@
   </si>
   <si>
     <t>Utils</t>
+  </si>
+  <si>
+    <t>State management</t>
+  </si>
+  <si>
+    <t>Run:</t>
+  </si>
+  <si>
+    <t>Init:</t>
+  </si>
+  <si>
+    <t>Path --&gt;</t>
+  </si>
+  <si>
+    <t>CallBack --&gt;</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>callback</t>
+  </si>
+  <si>
+    <t>has</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,6 +110,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -112,10 +142,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,66 +483,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9EB9F8-9078-324D-B8B8-BF40A85BE6BB}">
-  <dimension ref="F6:J10"/>
+  <dimension ref="E5:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="10" max="10" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="H5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="6:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="5:12" x14ac:dyDescent="0.2">
       <c r="F7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="H7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="H8" s="1" t="s">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F10" s="1" t="s">
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
